--- a/processed/leaftype_nativenn_cover.xlsx
+++ b/processed/leaftype_nativenn_cover.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/work/Library/CloudStorage/Dropbox/GRADSCHOOL/Dissertation/R_dissertation/chaparraldegradation_2022b/processed/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AB11BD8-C274-CA46-8C4A-317DF8C79F0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{695B7DCA-0720-9243-84AF-7F052F0C9E51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2359,7 +2359,7 @@
   <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2392,19 +2392,19 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
         <v>9</v>
       </c>
       <c r="E2">
-        <v>0.12195121951219499</v>
+        <v>0.68292682926829296</v>
       </c>
       <c r="F2">
-        <v>0.243902439</v>
+        <v>7.3170732000000002E-2</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -2412,19 +2412,19 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
         <v>10</v>
       </c>
       <c r="E3">
-        <v>0.51219512195121997</v>
+        <v>0.24390243902438999</v>
       </c>
       <c r="F3">
-        <v>0.243902439</v>
+        <v>7.3170732000000002E-2</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -2438,10 +2438,10 @@
         <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E4">
-        <v>0.68292682926829296</v>
+        <v>0.70731707300000002</v>
       </c>
       <c r="F4">
         <v>7.3170732000000002E-2</v>
@@ -2452,19 +2452,19 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E5">
-        <v>0.24390243902438999</v>
+        <v>0.34146341463414598</v>
       </c>
       <c r="F5">
-        <v>7.3170732000000002E-2</v>
+        <v>0.12195122</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -2478,10 +2478,10 @@
         <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6">
-        <v>0.34146341463414598</v>
+        <v>0.82926829268292712</v>
       </c>
       <c r="F6">
         <v>0.12195122</v>
@@ -2498,10 +2498,10 @@
         <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E7">
-        <v>0.82926829268292712</v>
+        <v>0.95121951199999999</v>
       </c>
       <c r="F7">
         <v>0.12195122</v>
@@ -2509,62 +2509,62 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D8" t="s">
         <v>9</v>
       </c>
       <c r="E8">
-        <v>0.56097560975609806</v>
+        <v>0.12195121951219499</v>
       </c>
       <c r="F8">
-        <v>0.75609756100000003</v>
+        <v>0.243902439</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D9" t="s">
         <v>10</v>
       </c>
       <c r="E9">
-        <v>9.7560975609756101E-2</v>
+        <v>0.51219512195121997</v>
       </c>
       <c r="F9">
-        <v>0.75609756100000003</v>
+        <v>0.243902439</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E10">
-        <v>0.53658536585365901</v>
+        <v>0.70731707300000002</v>
       </c>
       <c r="F10">
-        <v>0.65853658500000001</v>
+        <v>0.243902439</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -2592,19 +2592,19 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E12">
-        <v>0.34146341463414598</v>
+        <v>0.80487804900000004</v>
       </c>
       <c r="F12">
-        <v>0.87804877999999997</v>
+        <v>0.46341463399999999</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -2612,19 +2612,19 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D13" t="s">
         <v>9</v>
       </c>
       <c r="E13">
-        <v>0.26829268292682901</v>
+        <v>0.53658536585365901</v>
       </c>
       <c r="F13">
-        <v>0.82926829300000005</v>
+        <v>0.65853658500000001</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -2632,319 +2632,319 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C14" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E14">
-        <v>0.56097560975609806</v>
+        <v>0.58536585399999996</v>
       </c>
       <c r="F14">
-        <v>0.82926829300000005</v>
+        <v>0.65853658500000001</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="D15" t="s">
         <v>9</v>
       </c>
       <c r="E15">
-        <v>0.41463414634146295</v>
+        <v>0.56097560975609806</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.75609756100000003</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16">
-        <v>0.39024390243902402</v>
+        <v>9.7560975609756101E-2</v>
       </c>
       <c r="F16">
-        <v>0.90243902399999998</v>
+        <v>0.75609756100000003</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E17">
-        <v>0.146341463414634</v>
+        <v>0.53658536599999995</v>
       </c>
       <c r="F17">
-        <v>0.97560975599999999</v>
+        <v>0.75609756100000003</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="C18" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D18" t="s">
         <v>9</v>
       </c>
       <c r="E18">
-        <v>0.24390243902438999</v>
+        <v>0.26829268292682901</v>
       </c>
       <c r="F18">
-        <v>0.97560975599999999</v>
+        <v>0.82926829300000005</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B19" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="C19" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D19" t="s">
         <v>9</v>
       </c>
       <c r="E19">
-        <v>0.19512195121951201</v>
+        <v>0.56097560975609806</v>
       </c>
       <c r="F19">
-        <v>0.97560975599999999</v>
+        <v>0.82926829300000005</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B20" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="C20" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E20">
-        <v>0.17073170731707299</v>
+        <v>0.29268292699999998</v>
       </c>
       <c r="F20">
-        <v>0.90243902399999998</v>
+        <v>0.82926829300000005</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="D21" t="s">
         <v>4</v>
       </c>
       <c r="E21">
-        <v>0.70731707300000002</v>
+        <v>0.46341463399999999</v>
       </c>
       <c r="F21">
-        <v>0.243902439</v>
+        <v>0.82926829300000005</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B22" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C22" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D22" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E22">
-        <v>0.70731707300000002</v>
+        <v>0.34146341463414598</v>
       </c>
       <c r="F22">
-        <v>7.3170732000000002E-2</v>
+        <v>0.87804877999999997</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B23" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C23" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D23" t="s">
         <v>4</v>
       </c>
       <c r="E23">
-        <v>0.95121951199999999</v>
+        <v>0.41463414599999998</v>
       </c>
       <c r="F23">
-        <v>0.12195122</v>
+        <v>0.87804877999999997</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E24">
-        <v>0.53658536599999995</v>
+        <v>0.39024390243902402</v>
       </c>
       <c r="F24">
-        <v>0.75609756100000003</v>
+        <v>0.90243902399999998</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="C25" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="D25" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E25">
-        <v>0.58536585399999996</v>
+        <v>0.17073170731707299</v>
       </c>
       <c r="F25">
-        <v>0.65853658500000001</v>
+        <v>0.90243902399999998</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="C26" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D26" t="s">
         <v>4</v>
       </c>
       <c r="E26">
-        <v>0.80487804900000004</v>
+        <v>0.39024390199999998</v>
       </c>
       <c r="F26">
-        <v>0.46341463399999999</v>
+        <v>0.90243902399999998</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="C27" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="D27" t="s">
         <v>4</v>
       </c>
       <c r="E27">
-        <v>0.41463414599999998</v>
+        <v>0.17073170700000001</v>
       </c>
       <c r="F27">
-        <v>0.87804877999999997</v>
+        <v>0.90243902399999998</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C28" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D28" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E28">
-        <v>0.29268292699999998</v>
+        <v>0.146341463414634</v>
       </c>
       <c r="F28">
-        <v>0.82926829300000005</v>
+        <v>0.97560975599999999</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="C29" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D29" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E29">
-        <v>0.46341463399999999</v>
+        <v>0.24390243902438999</v>
       </c>
       <c r="F29">
-        <v>0.82926829300000005</v>
+        <v>0.97560975599999999</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
@@ -2952,19 +2952,19 @@
         <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C30" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D30" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E30">
-        <v>0.39024390199999998</v>
+        <v>0.19512195121951201</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>0.97560975599999999</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
@@ -2975,16 +2975,16 @@
         <v>25</v>
       </c>
       <c r="C31" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D31" t="s">
         <v>4</v>
       </c>
       <c r="E31">
-        <v>0.39024390199999998</v>
+        <v>0.19512195099999999</v>
       </c>
       <c r="F31">
-        <v>0.90243902399999998</v>
+        <v>0.97560975599999999</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
@@ -2992,16 +2992,16 @@
         <v>24</v>
       </c>
       <c r="B32" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C32" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D32" t="s">
         <v>4</v>
       </c>
       <c r="E32">
-        <v>0.19512195099999999</v>
+        <v>0.26829268299999998</v>
       </c>
       <c r="F32">
         <v>0.97560975599999999</v>
@@ -3015,13 +3015,13 @@
         <v>29</v>
       </c>
       <c r="C33" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D33" t="s">
         <v>4</v>
       </c>
       <c r="E33">
-        <v>0.26829268299999998</v>
+        <v>0.21951219499999999</v>
       </c>
       <c r="F33">
         <v>0.97560975599999999</v>
@@ -3032,19 +3032,19 @@
         <v>24</v>
       </c>
       <c r="B34" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C34" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D34" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E34">
-        <v>0.21951219499999999</v>
+        <v>0.41463414634146295</v>
       </c>
       <c r="F34">
-        <v>0.97560975599999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
@@ -3052,22 +3052,25 @@
         <v>24</v>
       </c>
       <c r="B35" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C35" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D35" t="s">
         <v>4</v>
       </c>
       <c r="E35">
-        <v>0.17073170700000001</v>
+        <v>0.39024390199999998</v>
       </c>
       <c r="F35">
-        <v>0.90243902399999998</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F35">
+    <sortCondition ref="F2:F35"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
